--- a/DATA/converted.xlsx
+++ b/DATA/converted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E1E62A9-C8A1-40F2-81DB-12C3F8DB948A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3A5010-A4A0-4AB3-83CD-F5A73C3B3774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEB7A115-F627-4DCE-ABA4-F84EF6CEE27F}"/>
+    <workbookView xWindow="1560" yWindow="1320" windowWidth="14160" windowHeight="14880" xr2:uid="{AEB7A115-F627-4DCE-ABA4-F84EF6CEE27F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Constraint</t>
   </si>
@@ -33,125 +33,138 @@
     <t>Equation</t>
   </si>
   <si>
-    <t>Flour</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Softener</t>
-  </si>
-  <si>
-    <t>Yellow butter</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>Milk powder</t>
-  </si>
-  <si>
-    <t>Liquid milk</t>
-  </si>
-  <si>
-    <t>BOS butter</t>
-  </si>
-  <si>
-    <t>Egg</t>
-  </si>
-  <si>
-    <t>Feeling</t>
-  </si>
-  <si>
-    <t>White butter</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>Production machine</t>
-  </si>
-  <si>
-    <t>Labor</t>
-  </si>
-  <si>
-    <t>28x1 + 100x2 + 250x3 + s1 = 400,000</t>
-  </si>
-  <si>
-    <t>7x1 + 25x2 + 62x3 + s2 = 250,000</t>
-  </si>
-  <si>
-    <t>1x1 + 9x2 + 4x3 + s3 = 90,000</t>
-  </si>
-  <si>
-    <t>1x1 + 6x2 + 2x3 + s4 = 40,000</t>
-  </si>
-  <si>
-    <t>5x1 + 20x2 + 50x3 + s5 = 90,000</t>
-  </si>
-  <si>
-    <t>1x1 + 3x2 + s6 = 10,000</t>
-  </si>
-  <si>
-    <t>1x1 + 3x2 + 2x3 + s7 = 60,000</t>
-  </si>
-  <si>
-    <t>5x1 + 20x2 + s8 = 60,000</t>
-  </si>
-  <si>
-    <t>5x1 + 20x2 + s9 = 90,000</t>
-  </si>
-  <si>
-    <t>4x1 + 15x2 + 25x3 + s10 = 70,000</t>
-  </si>
-  <si>
-    <t>14x1 + 20x2 + s11 = 200,000</t>
-  </si>
-  <si>
-    <t>5x3 + s12 = 90,000</t>
-  </si>
-  <si>
-    <t>2x3 + s13 = 20,000</t>
-  </si>
-  <si>
-    <t>32x1 + 132x2 + 336x3 + s14 = 475,200</t>
-  </si>
-  <si>
-    <t>65x1 + 209x2 + 450x3 + s15 = 748,800</t>
-  </si>
-  <si>
-    <t>x1 − s16 + a16 = 3,640</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>x2 − s17 + a17 = 1,300</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>x3 − s18 + a18 = 520</t>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>vegetable oil</t>
+  </si>
+  <si>
+    <t>baking powder</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>yeast</t>
+  </si>
+  <si>
+    <t>spices</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>labor</t>
+  </si>
+  <si>
+    <t>150x1 + 200x2 + 250x3 + s1 = 350000</t>
+  </si>
+  <si>
+    <t>50x1 + 5x2 + 7x3 + s2 = 250000</t>
+  </si>
+  <si>
+    <t>50x2 + s3 = 60000</t>
+  </si>
+  <si>
+    <t>5x1 + 7x2 + 8x3 + s4 = 10000</t>
+  </si>
+  <si>
+    <t>15x1 + 25x2 + 20x3 + s5 = 100000</t>
+  </si>
+  <si>
+    <t>5x1 + s6 = 50000</t>
+  </si>
+  <si>
+    <t>12x1 + 8x2 + 15x3 + s7 = 30000</t>
+  </si>
+  <si>
+    <t>200x1 + 300x2 + 250x3 + s8 = 500000</t>
+  </si>
+  <si>
+    <t>5x3 + s9 = 2000</t>
+  </si>
+  <si>
+    <t>5x1 + 10x2 + 5x3 + s10 = 10000</t>
+  </si>
+  <si>
+    <r>
+      <t>4x1 + 6x2 + 8x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 + s11 =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF374151"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 30000</t>
+    </r>
+  </si>
+  <si>
+    <t>60x1 + 90x2 + 75x3 + s12 = 108000</t>
+  </si>
+  <si>
+    <t>45x1 + 75x2 + 60x3 + s13 = 216000</t>
+  </si>
+  <si>
+    <t>x1 - s14 + a14 = 800</t>
+  </si>
+  <si>
+    <t>x2 - s15 + a15 = 350</t>
+  </si>
+  <si>
+    <t>x3 - s16 + a16 = 250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,16 +503,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B501CD-56BC-4F79-BC61-7F9D0B47F435}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -539,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -547,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -563,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,15 +601,15 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,47 +625,22 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
